--- a/biology/Zoologie/Eucrossorhinus_dasypogon/Eucrossorhinus_dasypogon.xlsx
+++ b/biology/Zoologie/Eucrossorhinus_dasypogon/Eucrossorhinus_dasypogon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Requin-tapis barbu (Eucrossorhinus dasypogon) est une espèce de requin-tapis, le seul représentant du genre Eucrossorhinus.
 Ce requin vit dans les récifs de coraux du Pacifique Sud-Ouest, en particulier dans la grande barrière de corail d'Australie.
-C'est une espèce qui est difficile à observer car elle a des barbes de peau frangée, un corps aplati et des couleurs de camouflage. Le requin-tapis barbu mesure jusqu'à 1,2 m de longueur[1].
+C'est une espèce qui est difficile à observer car elle a des barbes de peau frangée, un corps aplati et des couleurs de camouflage. Le requin-tapis barbu mesure jusqu'à 1,2 m de longueur.
 </t>
         </is>
       </c>
@@ -513,12 +525,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Eucrossorhinus dasypogon a été décrite pour la première fois par l'ichtyologiste néerlandais Pieter Bleeker en 1867 sous le basionyme de crossorhinus dasypogon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eucrossorhinus dasypogon a été décrite pour la première fois par l'ichtyologiste néerlandais Pieter Bleeker en 1867 sous le basionyme de crossorhinus dasypogon.
 Le genre Eucrossorhinus a été décrit pour la première fois par l'ichtyologiste britannique Charles Tate Regan en 1909 lors de sa révision des Orectolobidae.
-Publications originales
-Pour l'espèce : Bleeker, P., « Description et figure d’une espèce inédite de Crossorhinus de l’archipel des Moluques », Archives Néerlandaises des Sciences Exactes et Naturelles, vol. 2,‎ 1867, p. 400–402 (lire en ligne).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eucrossorhinus_dasypogon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eucrossorhinus_dasypogon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Publications originales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pour l'espèce : Bleeker, P., « Description et figure d’une espèce inédite de Crossorhinus de l’archipel des Moluques », Archives Néerlandaises des Sciences Exactes et Naturelles, vol. 2,‎ 1867, p. 400–402 (lire en ligne).
 Pour le genre: (en) Regan, C.T., « A revision of the sharks of the family Orectolobidae », Proceedings of the Zoological Society of London, no 1,‎ 1908, p. 347–364 (lire en ligne)</t>
         </is>
       </c>
